--- a/BTC_in_USD.xlsx
+++ b/BTC_in_USD.xlsx
@@ -11932,10 +11932,10 @@
         <v>43641</v>
       </c>
       <c r="B502">
-        <v>11673.74</v>
+        <v>11658.06</v>
       </c>
       <c r="C502">
-        <v>11673.74</v>
+        <v>11658.06</v>
       </c>
       <c r="D502">
         <v>10992.37</v>
